--- a/topo/allSFCList.xlsx
+++ b/topo/allSFCList.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,7 +378,7 @@
         <v>90</v>
       </c>
       <c r="C1">
-        <v>0.9</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -395,7 +395,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>

--- a/topo/allSFCList.xlsx
+++ b/topo/allSFCList.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -378,7 +378,7 @@
         <v>90</v>
       </c>
       <c r="C1">
-        <v>0.56999999999999995</v>
+        <v>0.7</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -412,7 +412,7 @@
         <v>120</v>
       </c>
       <c r="C3">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
